--- a/medicine/Handicap/Maria_Veronica_Reina/Maria_Veronica_Reina.xlsx
+++ b/medicine/Handicap/Maria_Veronica_Reina/Maria_Veronica_Reina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria Veronica Reina est une éducatrice psychologiste (en) argentine.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Elle est originaire d’Argentine[1]. Elle est diplômée de l’Université catholique de Santa Fe[1].
-Carrière
-Elle travaille comme psychopédagogue, spécialiste des troubles d’apprentissage[1].
-Elle est directrice des programmes internationaux de BBI et directrice exécutive du Partenariat mondial pour le handicap et le développement[1],[2].
-Elle représente l’International Disability Consortium, la coalition d’organisations de personnes handicapées, lors de la négociation de la Convention des Nations Unies relative aux droits des personnes handicapées (2001-2006)[3].
-Mort
-Elle est décédée le 27 octobre 2017 dans sa ville natale de Rosario[4].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est originaire d’Argentine. Elle est diplômée de l’Université catholique de Santa Fe.
 </t>
         </is>
       </c>
@@ -546,12 +557,90 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle travaille comme psychopédagogue, spécialiste des troubles d’apprentissage.
+Elle est directrice des programmes internationaux de BBI et directrice exécutive du Partenariat mondial pour le handicap et le développement,.
+Elle représente l’International Disability Consortium, la coalition d’organisations de personnes handicapées, lors de la négociation de la Convention des Nations Unies relative aux droits des personnes handicapées (2001-2006).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maria_Veronica_Reina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maria_Veronica_Reina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est décédée le 27 octobre 2017 dans sa ville natale de Rosario.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maria_Veronica_Reina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maria_Veronica_Reina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prises de positions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle promeut les droits des handicapés[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle promeut les droits des handicapés.
 </t>
         </is>
       </c>
